--- a/example.xlsx
+++ b/example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ntduyen/workspace/tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8FDA2E-BE8D-8542-9C7A-9B2567C517FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678FA3B5-3B80-B442-BA0C-3FDC105149B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24000" windowHeight="9340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -483,7 +483,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
